--- a/_book/offline/assets/watch-1b.xlsx
+++ b/_book/offline/assets/watch-1b.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +125,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -382,16 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -409,27 +394,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,8 +418,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,7 +733,7 @@
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,38 +747,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -784,20 +786,20 @@
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -805,45 +807,45 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>0.70972222222222225</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="25">
         <v>0.71180555555555547</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -851,22 +853,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="15">
         <v>0.71319444444444446</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="18" t="s">
         <v>18</v>
       </c>
     </row>

--- a/_book/offline/assets/watch-1b.xlsx
+++ b/_book/offline/assets/watch-1b.xlsx
@@ -421,15 +421,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,6 +439,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -747,17 +747,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="2:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -807,7 +807,7 @@
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="11">
@@ -816,36 +816,36 @@
       <c r="E5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>0.71180555555555547</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="21" t="s">
         <v>14</v>
       </c>
     </row>
